--- a/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_d'Helsinki/Musée_d'histoire_naturelle_d'Helsinki.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Musée_d'histoire_naturelle_d'Helsinki/Musée_d'histoire_naturelle_d'Helsinki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_d%27Helsinki</t>
+          <t>Musée_d'histoire_naturelle_d'Helsinki</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Musée d'histoire naturelle d'Helsinki (finnois : luonnontieteellinen museo) anciennement musée zoologique de Finlande (finnois : eläinmuseo) est situé dans le centre de la ville d'Helsinki, capitale de la Finlande. Il est situé dans le quartier de etu-Töölö, non loin du parlement. Il est une des composantes du Musée d'histoire naturelle de Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_d%27Helsinki</t>
+          <t>Musée_d'histoire_naturelle_d'Helsinki</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bâtiment est conçu par deux Russes, le conseiller pédagogique V. V. Belevitch et l'architecte Lev Chichko en style néobaroque et inauguré en 1913.
 De 1913 à 1917, il abrite le  lycée Aleksandre.
@@ -531,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mus%C3%A9e_d%27histoire_naturelle_d%27Helsinki</t>
+          <t>Musée_d'histoire_naturelle_d'Helsinki</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,7 +563,9 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Exposition: Histoire de la vie.Exposition: Nature finlandaise.
